--- a/pypsa_simulation_realmap_HVDC/results_df.xlsx
+++ b/pypsa_simulation_realmap_HVDC/results_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,10 +469,15 @@
           <t>Storage</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>longest-elec-line</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B2" t="n">
         <v>0.5</v>
@@ -490,10 +495,11 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B3" t="n">
         <v>0.6</v>
@@ -511,10 +517,11 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B4" t="n">
         <v>0.7</v>
@@ -532,10 +539,11 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B5" t="n">
         <v>0.725</v>
@@ -553,10 +561,11 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B6" t="n">
         <v>0.75</v>
@@ -574,10 +583,11 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B7" t="n">
         <v>0.775</v>
@@ -595,10 +605,11 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B8" t="n">
         <v>0.8</v>
@@ -616,10 +627,11 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B9" t="n">
         <v>0.825</v>
@@ -637,10 +649,11 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B10" t="n">
         <v>0.85</v>
@@ -658,10 +671,11 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B11" t="n">
         <v>0.875</v>
@@ -679,10 +693,11 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B12" t="n">
         <v>0.9</v>
@@ -700,10 +715,11 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B13" t="n">
         <v>0.95</v>
@@ -721,10 +737,11 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B14" t="n">
         <v>0.99</v>
@@ -736,18 +753,21 @@
         <v>2e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4035565829311576</v>
+        <v>0.4693734265697039</v>
       </c>
       <c r="F14" t="n">
-        <v>1446.092339863247</v>
+        <v>568.2780188701935</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>839.817823925091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.725</v>
+        <v>2.2</v>
       </c>
       <c r="B15" t="n">
         <v>0.5</v>
@@ -765,10 +785,11 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.725</v>
+        <v>2.2</v>
       </c>
       <c r="B16" t="n">
         <v>0.6</v>
@@ -786,10 +807,11 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.725</v>
+        <v>2.2</v>
       </c>
       <c r="B17" t="n">
         <v>0.7</v>
@@ -807,10 +829,11 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.725</v>
+        <v>2.2</v>
       </c>
       <c r="B18" t="n">
         <v>0.725</v>
@@ -828,10 +851,11 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.725</v>
+        <v>2.2</v>
       </c>
       <c r="B19" t="n">
         <v>0.75</v>
@@ -843,18 +867,17 @@
         <v>5e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0006217988663760432</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1668.996786730311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="b">
         <v>0</v>
       </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.725</v>
+        <v>2.2</v>
       </c>
       <c r="B20" t="n">
         <v>0.775</v>
@@ -866,18 +889,17 @@
         <v>5e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0006116938268195013</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1668.996786730311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="b">
         <v>0</v>
       </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.725</v>
+        <v>2.2</v>
       </c>
       <c r="B21" t="n">
         <v>0.8</v>
@@ -889,18 +911,21 @@
         <v>5e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01873212264285609</v>
+        <v>0.01477013484273552</v>
       </c>
       <c r="F21" t="n">
-        <v>1668.996786730311</v>
+        <v>1704.428156924223</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.725</v>
+        <v>2.15</v>
       </c>
       <c r="B22" t="n">
         <v>0.825</v>
@@ -912,18 +937,21 @@
         <v>5e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>0.128609460296915</v>
+        <v>0.1183425173014935</v>
       </c>
       <c r="F22" t="n">
-        <v>1887.255089586889</v>
+        <v>726.5316435270638</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.725</v>
+        <v>2.15</v>
       </c>
       <c r="B23" t="n">
         <v>0.85</v>
@@ -935,18 +963,21 @@
         <v>5e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4563332373009352</v>
+        <v>0.4497119246838298</v>
       </c>
       <c r="F23" t="n">
-        <v>936.2567878088569</v>
+        <v>568.2780188701935</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1523.19113710136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.65</v>
+        <v>2.125</v>
       </c>
       <c r="B24" t="n">
         <v>0.875</v>
@@ -958,18 +989,21 @@
         <v>5e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>0.524951539861449</v>
+        <v>0.4975438915545644</v>
       </c>
       <c r="F24" t="n">
-        <v>863.5179801089398</v>
+        <v>568.2780188701935</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1263.581828325286</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.65</v>
+        <v>2.125</v>
       </c>
       <c r="B25" t="n">
         <v>0.9</v>
@@ -981,18 +1015,21 @@
         <v>5e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5158730955077803</v>
+        <v>0.4990865964011627</v>
       </c>
       <c r="F25" t="n">
-        <v>863.5179801089398</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>839.817823925091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.575</v>
+        <v>2.1</v>
       </c>
       <c r="B26" t="n">
         <v>0.95</v>
@@ -1004,18 +1041,21 @@
         <v>5e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5758933241551285</v>
+        <v>0.5094554818218463</v>
       </c>
       <c r="F26" t="n">
-        <v>608.9087574360177</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>509.6450616936563</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.575</v>
+        <v>2.05</v>
       </c>
       <c r="B27" t="n">
         <v>0.99</v>
@@ -1027,18 +1067,19 @@
         <v>5e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5927419129137831</v>
+        <v>0.5742428102958144</v>
       </c>
       <c r="F27" t="n">
-        <v>479.9049545608844</v>
+        <v>280.2084934688533</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.89375</v>
+        <v>4.78125</v>
       </c>
       <c r="B28" t="n">
         <v>0.5</v>
@@ -1050,18 +1091,21 @@
         <v>2e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2764324213636429</v>
+        <v>0.2626720538881632</v>
       </c>
       <c r="F28" t="n">
-        <v>479.9049545608844</v>
+        <v>280.2084934688533</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.65</v>
+        <v>4.59375</v>
       </c>
       <c r="B29" t="n">
         <v>0.6</v>
@@ -1073,18 +1117,21 @@
         <v>2e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2696623312662001</v>
+        <v>0.2523780925962724</v>
       </c>
       <c r="F29" t="n">
-        <v>479.9049545608844</v>
+        <v>280.2084934688533</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.40625</v>
+        <v>4.59375</v>
       </c>
       <c r="B30" t="n">
         <v>0.7</v>
@@ -1096,18 +1143,21 @@
         <v>2e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2686608358580169</v>
+        <v>0.2411653872664788</v>
       </c>
       <c r="F30" t="n">
-        <v>479.9049545608844</v>
+        <v>280.2084934688533</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.40625</v>
+        <v>4.59375</v>
       </c>
       <c r="B31" t="n">
         <v>0.725</v>
@@ -1119,18 +1169,21 @@
         <v>2e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2643278566354737</v>
+        <v>0.2380486397932958</v>
       </c>
       <c r="F31" t="n">
-        <v>479.9049545608844</v>
+        <v>280.2084934688533</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.325</v>
+        <v>4.59375</v>
       </c>
       <c r="B32" t="n">
         <v>0.75</v>
@@ -1142,18 +1195,21 @@
         <v>2e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2652864163918165</v>
+        <v>0.2350462626080063</v>
       </c>
       <c r="F32" t="n">
-        <v>479.9049545608844</v>
+        <v>280.2084934688533</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.325</v>
+        <v>4.59375</v>
       </c>
       <c r="B33" t="n">
         <v>0.775</v>
@@ -1165,18 +1221,21 @@
         <v>2e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2620940895800579</v>
+        <v>0.2321509686114486</v>
       </c>
       <c r="F33" t="n">
-        <v>479.9049545608844</v>
+        <v>280.2084934688533</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.24375</v>
+        <v>4.59375</v>
       </c>
       <c r="B34" t="n">
         <v>0.8</v>
@@ -1188,18 +1247,21 @@
         <v>2e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2631430841480971</v>
+        <v>0.2293328795155942</v>
       </c>
       <c r="F34" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.24375</v>
+        <v>4.59375</v>
       </c>
       <c r="B35" t="n">
         <v>0.825</v>
@@ -1211,18 +1273,21 @@
         <v>2e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2605797410974602</v>
+        <v>0.2265525336610482</v>
       </c>
       <c r="F35" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.1625</v>
+        <v>4.59375</v>
       </c>
       <c r="B36" t="n">
         <v>0.85</v>
@@ -1234,18 +1299,21 @@
         <v>2e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2622745212963898</v>
+        <v>0.2239755459146071</v>
       </c>
       <c r="F36" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.1625</v>
+        <v>4.59375</v>
       </c>
       <c r="B37" t="n">
         <v>0.875</v>
@@ -1257,18 +1325,21 @@
         <v>2e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2594893871647588</v>
+        <v>0.2215110708297041</v>
       </c>
       <c r="F37" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.08125</v>
+        <v>4.59375</v>
       </c>
       <c r="B38" t="n">
         <v>0.9</v>
@@ -1280,18 +1351,21 @@
         <v>2e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.262818732731996</v>
+        <v>0.2191246533256698</v>
       </c>
       <c r="F38" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.08125</v>
+        <v>4.59375</v>
       </c>
       <c r="B39" t="n">
         <v>0.95</v>
@@ -1303,18 +1377,21 @@
         <v>2e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2576152294071725</v>
+        <v>0.2213533822947603</v>
       </c>
       <c r="F39" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.08125</v>
+        <v>4.59375</v>
       </c>
       <c r="B40" t="n">
         <v>0.99</v>
@@ -1326,18 +1403,21 @@
         <v>2e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4498804118525151</v>
+        <v>0.4891345273177373</v>
       </c>
       <c r="F40" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>839.817823925091</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.21875</v>
+        <v>5.5625</v>
       </c>
       <c r="B41" t="n">
         <v>0.5</v>
@@ -1349,18 +1429,21 @@
         <v>5e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2883411133891878</v>
+        <v>0.252106633264536</v>
       </c>
       <c r="F41" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.89375</v>
+        <v>5.5625</v>
       </c>
       <c r="B42" t="n">
         <v>0.6</v>
@@ -1372,18 +1455,21 @@
         <v>5e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2894716878778965</v>
+        <v>0.2302942408731234</v>
       </c>
       <c r="F42" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.73125</v>
+        <v>5.5625</v>
       </c>
       <c r="B43" t="n">
         <v>0.7</v>
@@ -1395,18 +1481,21 @@
         <v>5e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2765676904502174</v>
+        <v>0.2122144369839384</v>
       </c>
       <c r="F43" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.65</v>
+        <v>5.5625</v>
       </c>
       <c r="B44" t="n">
         <v>0.725</v>
@@ -1418,18 +1507,21 @@
         <v>5e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2801692383789492</v>
+        <v>0.2124014507355377</v>
       </c>
       <c r="F44" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.65</v>
+        <v>5.5625</v>
       </c>
       <c r="B45" t="n">
         <v>0.75</v>
@@ -1441,18 +1533,21 @@
         <v>5e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2751886098362622</v>
+        <v>0.2124422645402447</v>
       </c>
       <c r="F45" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.568750000000001</v>
+        <v>5.5625</v>
       </c>
       <c r="B46" t="n">
         <v>0.775</v>
@@ -1464,18 +1559,21 @@
         <v>5e-06</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2840975781986046</v>
+        <v>0.2102311595994133</v>
       </c>
       <c r="F46" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.568750000000001</v>
+        <v>5.5625</v>
       </c>
       <c r="B47" t="n">
         <v>0.8</v>
@@ -1487,18 +1585,21 @@
         <v>5e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2794346820564876</v>
+        <v>0.2116207510573933</v>
       </c>
       <c r="F47" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.487500000000001</v>
+        <v>5.5625</v>
       </c>
       <c r="B48" t="n">
         <v>0.825</v>
@@ -1510,18 +1611,21 @@
         <v>5e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>0.306905946597835</v>
+        <v>0.2161529225525684</v>
       </c>
       <c r="F48" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1913.6875204619</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.40625</v>
+        <v>5.5625</v>
       </c>
       <c r="B49" t="n">
         <v>0.85</v>
@@ -1533,18 +1637,21 @@
         <v>5e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4686859425952269</v>
+        <v>0.2959115013006009</v>
       </c>
       <c r="F49" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1639.881145512365</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.40625</v>
+        <v>5.5625</v>
       </c>
       <c r="B50" t="n">
         <v>0.875</v>
@@ -1556,18 +1663,21 @@
         <v>5e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5343652487856808</v>
+        <v>0.3701708658357787</v>
       </c>
       <c r="F50" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1263.581828325286</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.325</v>
+        <v>5.5625</v>
       </c>
       <c r="B51" t="n">
         <v>0.9</v>
@@ -1579,18 +1689,21 @@
         <v>5e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5349564613013763</v>
+        <v>0.4489979257006496</v>
       </c>
       <c r="F51" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1044.162788699649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.24375</v>
+        <v>5.5625</v>
       </c>
       <c r="B52" t="n">
         <v>0.95</v>
@@ -1602,18 +1715,21 @@
         <v>5e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5757719478202877</v>
+        <v>0.4603553782267232</v>
       </c>
       <c r="F52" t="n">
-        <v>479.9049545608844</v>
+        <v>509.6450616936563</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>509.6450616936563</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.08125</v>
+        <v>5.5625</v>
       </c>
       <c r="B53" t="n">
         <v>0.99</v>
@@ -1625,14 +1741,651 @@
         <v>5e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5966668126656578</v>
+        <v>0.4995233516469602</v>
       </c>
       <c r="F53" t="n">
-        <v>479.9049545608844</v>
+        <v>280.2084934688533</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2943603346520645</v>
+      </c>
+      <c r="F54" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2842736557342674</v>
+      </c>
+      <c r="F55" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.271109728503076</v>
+      </c>
+      <c r="F56" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.267045826376419</v>
+      </c>
+      <c r="F57" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2631342981055089</v>
+      </c>
+      <c r="F58" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2593646777414796</v>
+      </c>
+      <c r="F59" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2558571677464391</v>
+      </c>
+      <c r="F60" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2568861570118373</v>
+      </c>
+      <c r="F61" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2551890393552222</v>
+      </c>
+      <c r="F62" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.2573309417837336</v>
+      </c>
+      <c r="F63" t="n">
+        <v>509.6450616936563</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.300585521101257</v>
+      </c>
+      <c r="F64" t="n">
+        <v>509.6450616936563</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1790.518196227622</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.4952521351256688</v>
+      </c>
+      <c r="F65" t="n">
+        <v>509.6450616936563</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>839.817823925091</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4.59375</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-4.999935</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5452652077455883</v>
+      </c>
+      <c r="F66" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.04004736030096761</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1704.428156924223</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1913.6875204619</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.3147549321267217</v>
+      </c>
+      <c r="F77" t="n">
+        <v>568.2780188701935</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1790.518196227622</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.500978421881964</v>
+      </c>
+      <c r="F78" t="n">
+        <v>568.2780188701935</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>726.5316435270638</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.500000000000001e-05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>7.500000000000001e-06</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.5696114755094747</v>
+      </c>
+      <c r="F79" t="n">
+        <v>280.2084934688533</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
